--- a/02_config/scenario_pv_60_hp_60_ev_60_consumer_10_summer_perfect/agents.xlsx
+++ b/02_config/scenario_pv_60_hp_60_ev_60_consumer_10_summer_perfect/agents.xlsx
@@ -29,12 +29,12 @@
     <t>general/bus</t>
   </si>
   <si>
+    <t>general/aggregated_by</t>
+  </si>
+  <si>
     <t>general/parameters/occupants</t>
   </si>
   <si>
-    <t>general/aggregated_by</t>
-  </si>
-  <si>
     <t>general/parameters/area</t>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
     <t>sfh_38</t>
   </si>
   <si>
-    <t>CRrZlV7BCccYPIp</t>
+    <t>i6hmZ96qZ7i1GuY</t>
   </si>
   <si>
     <t>000019889.csv</t>
@@ -1580,7 +1580,7 @@
     <t>clustering_represented_group/agent_types</t>
   </si>
   <si>
-    <t>['sfh_33', 'sfh_8', 'sfh_38', 'sfh_9', 'sfh_34', 'sfh_4', 'sfh_18', 'sfh_24', 'sfh_14', 'sfh_10']</t>
+    <t>['sfh_14', 'sfh_4', 'sfh_9', 'sfh_1', 'sfh_19', 'sfh_20', 'sfh_38', 'sfh_11', 'sfh_2', 'sfh_33']</t>
   </si>
   <si>
     <t>[1]</t>
@@ -2835,11 +2835,11 @@
       <c r="E2">
         <v>21274</v>
       </c>
-      <c r="F2">
-        <v>4</v>
+      <c r="G2">
+        <v>3</v>
       </c>
       <c r="H2">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I2">
         <v>2</v>
@@ -2848,7 +2848,7 @@
         <v>2.6</v>
       </c>
       <c r="K2">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -3007,7 +3007,7 @@
         <v>60</v>
       </c>
       <c r="DE2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF2" t="s">
         <v>368</v>
@@ -3289,7 +3289,7 @@
         <v>487</v>
       </c>
       <c r="IN2">
-        <v>43200</v>
+        <v>86400</v>
       </c>
       <c r="IO2">
         <v>1</v>
@@ -3340,7 +3340,7 @@
         <v>0</v>
       </c>
       <c r="JG2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ2">
         <v>0</v>
@@ -3349,7 +3349,7 @@
         <v>0</v>
       </c>
       <c r="JL2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:290">
@@ -3362,7 +3362,10 @@
       <c r="E3">
         <v>21249</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="s">
+        <v>328</v>
+      </c>
+      <c r="G3">
         <v>4</v>
       </c>
       <c r="H3">
@@ -3519,7 +3522,7 @@
         <v>0</v>
       </c>
       <c r="DE3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF3" t="s">
         <v>368</v>
@@ -3711,7 +3714,7 @@
         <v>487</v>
       </c>
       <c r="IN3">
-        <v>57600</v>
+        <v>86400</v>
       </c>
       <c r="IO3">
         <v>1</v>
@@ -3762,7 +3765,7 @@
         <v>0</v>
       </c>
       <c r="JG3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ3">
         <v>0</v>
@@ -3771,7 +3774,7 @@
         <v>0</v>
       </c>
       <c r="JL3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:290">
@@ -3784,11 +3787,14 @@
       <c r="E4">
         <v>21166</v>
       </c>
-      <c r="F4">
-        <v>3</v>
+      <c r="F4" t="s">
+        <v>328</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
       </c>
       <c r="H4">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -3797,7 +3803,7 @@
         <v>2.6</v>
       </c>
       <c r="K4">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -3941,7 +3947,7 @@
         <v>0</v>
       </c>
       <c r="DE4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF4" t="s">
         <v>368</v>
@@ -4184,7 +4190,7 @@
         <v>0</v>
       </c>
       <c r="JG4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ4">
         <v>0</v>
@@ -4193,7 +4199,7 @@
         <v>0</v>
       </c>
       <c r="JL4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:290">
@@ -4206,7 +4212,7 @@
       <c r="E5">
         <v>20723</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>3</v>
       </c>
       <c r="H5">
@@ -4378,7 +4384,7 @@
         <v>51</v>
       </c>
       <c r="DE5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF5" t="s">
         <v>368</v>
@@ -4660,7 +4666,7 @@
         <v>487</v>
       </c>
       <c r="IN5">
-        <v>43200</v>
+        <v>57600</v>
       </c>
       <c r="IO5">
         <v>1</v>
@@ -4717,7 +4723,7 @@
         <v>51</v>
       </c>
       <c r="JG5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ5">
         <v>0</v>
@@ -4726,7 +4732,7 @@
         <v>0</v>
       </c>
       <c r="JL5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM5" t="s">
         <v>503</v>
@@ -4793,14 +4799,14 @@
       <c r="E6">
         <v>20561</v>
       </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="F6" t="s">
         <v>328</v>
       </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
       <c r="H6">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I6">
         <v>2</v>
@@ -4809,7 +4815,7 @@
         <v>2.6</v>
       </c>
       <c r="K6">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -4953,7 +4959,7 @@
         <v>0</v>
       </c>
       <c r="DE6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF6" t="s">
         <v>368</v>
@@ -5145,7 +5151,7 @@
         <v>487</v>
       </c>
       <c r="IN6">
-        <v>72000</v>
+        <v>43200</v>
       </c>
       <c r="IO6">
         <v>1</v>
@@ -5196,7 +5202,7 @@
         <v>0</v>
       </c>
       <c r="JG6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ6">
         <v>0</v>
@@ -5205,7 +5211,7 @@
         <v>0</v>
       </c>
       <c r="JL6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:290">
@@ -5218,7 +5224,7 @@
       <c r="E7">
         <v>20289</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>4</v>
       </c>
       <c r="H7">
@@ -5390,7 +5396,7 @@
         <v>50</v>
       </c>
       <c r="DE7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF7" t="s">
         <v>368</v>
@@ -5672,7 +5678,7 @@
         <v>487</v>
       </c>
       <c r="IN7">
-        <v>86400</v>
+        <v>57600</v>
       </c>
       <c r="IO7">
         <v>1</v>
@@ -5723,7 +5729,7 @@
         <v>0</v>
       </c>
       <c r="JG7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ7">
         <v>0</v>
@@ -5732,7 +5738,7 @@
         <v>0</v>
       </c>
       <c r="JL7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:290">
@@ -5745,7 +5751,7 @@
       <c r="E8">
         <v>20136</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>4</v>
       </c>
       <c r="H8">
@@ -5917,7 +5923,7 @@
         <v>90</v>
       </c>
       <c r="DE8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF8" t="s">
         <v>368</v>
@@ -6256,7 +6262,7 @@
         <v>51</v>
       </c>
       <c r="JG8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JH8">
         <v>9300</v>
@@ -6271,7 +6277,7 @@
         <v>51</v>
       </c>
       <c r="JL8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM8" t="s">
         <v>504</v>
@@ -6311,7 +6317,7 @@
       <c r="E9">
         <v>19994</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>3</v>
       </c>
       <c r="H9">
@@ -6483,7 +6489,7 @@
         <v>46</v>
       </c>
       <c r="DE9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF9" t="s">
         <v>368</v>
@@ -6765,7 +6771,7 @@
         <v>487</v>
       </c>
       <c r="IN9">
-        <v>57600</v>
+        <v>43200</v>
       </c>
       <c r="IO9">
         <v>1</v>
@@ -6816,7 +6822,7 @@
         <v>0</v>
       </c>
       <c r="JG9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ9">
         <v>0</v>
@@ -6825,7 +6831,7 @@
         <v>0</v>
       </c>
       <c r="JL9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM9" t="s">
         <v>505</v>
@@ -6865,11 +6871,8 @@
       <c r="E10">
         <v>19849</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>4</v>
-      </c>
-      <c r="G10" t="s">
-        <v>328</v>
       </c>
       <c r="H10">
         <v>130</v>
@@ -7025,7 +7028,7 @@
         <v>0</v>
       </c>
       <c r="DE10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF10" t="s">
         <v>368</v>
@@ -7217,7 +7220,7 @@
         <v>487</v>
       </c>
       <c r="IN10">
-        <v>43200</v>
+        <v>57600</v>
       </c>
       <c r="IO10">
         <v>1</v>
@@ -7268,7 +7271,7 @@
         <v>0</v>
       </c>
       <c r="JG10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ10">
         <v>0</v>
@@ -7277,7 +7280,7 @@
         <v>0</v>
       </c>
       <c r="JL10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:290">
@@ -7290,11 +7293,11 @@
       <c r="E11">
         <v>19767</v>
       </c>
-      <c r="F11">
-        <v>3</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="F11" t="s">
         <v>328</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
       </c>
       <c r="H11">
         <v>100</v>
@@ -7450,7 +7453,7 @@
         <v>0</v>
       </c>
       <c r="DE11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF11" t="s">
         <v>368</v>
@@ -7642,7 +7645,7 @@
         <v>487</v>
       </c>
       <c r="IN11">
-        <v>86400</v>
+        <v>57600</v>
       </c>
       <c r="IO11">
         <v>1</v>
@@ -7693,7 +7696,7 @@
         <v>0</v>
       </c>
       <c r="JG11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ11">
         <v>0</v>
@@ -7702,7 +7705,7 @@
         <v>0</v>
       </c>
       <c r="JL11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:290">
@@ -7715,14 +7718,11 @@
       <c r="E12">
         <v>19761</v>
       </c>
-      <c r="F12">
-        <v>4</v>
-      </c>
-      <c r="G12" t="s">
-        <v>328</v>
+      <c r="G12">
+        <v>3</v>
       </c>
       <c r="H12">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I12">
         <v>2</v>
@@ -7731,7 +7731,7 @@
         <v>2.6</v>
       </c>
       <c r="K12">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -7875,7 +7875,7 @@
         <v>0</v>
       </c>
       <c r="DE12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF12" t="s">
         <v>368</v>
@@ -8118,7 +8118,7 @@
         <v>0</v>
       </c>
       <c r="JG12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ12">
         <v>0</v>
@@ -8127,7 +8127,7 @@
         <v>0</v>
       </c>
       <c r="JL12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:290">
@@ -8140,11 +8140,14 @@
       <c r="E13">
         <v>19686</v>
       </c>
-      <c r="F13">
-        <v>4</v>
+      <c r="F13" t="s">
+        <v>328</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
       </c>
       <c r="H13">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I13">
         <v>2</v>
@@ -8153,7 +8156,7 @@
         <v>2.6</v>
       </c>
       <c r="K13">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -8297,7 +8300,7 @@
         <v>0</v>
       </c>
       <c r="DE13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF13" t="s">
         <v>368</v>
@@ -8489,7 +8492,7 @@
         <v>487</v>
       </c>
       <c r="IN13">
-        <v>72000</v>
+        <v>86400</v>
       </c>
       <c r="IO13">
         <v>1</v>
@@ -8540,7 +8543,7 @@
         <v>0</v>
       </c>
       <c r="JG13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ13">
         <v>0</v>
@@ -8549,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="JL13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:290">
@@ -8562,7 +8565,7 @@
       <c r="E14">
         <v>19522</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>4</v>
       </c>
       <c r="H14">
@@ -8719,7 +8722,7 @@
         <v>0</v>
       </c>
       <c r="DE14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF14" t="s">
         <v>368</v>
@@ -8911,7 +8914,7 @@
         <v>487</v>
       </c>
       <c r="IN14">
-        <v>72000</v>
+        <v>86400</v>
       </c>
       <c r="IO14">
         <v>1</v>
@@ -8962,7 +8965,7 @@
         <v>0</v>
       </c>
       <c r="JG14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ14">
         <v>0</v>
@@ -8971,7 +8974,7 @@
         <v>0</v>
       </c>
       <c r="JL14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:290">
@@ -8984,7 +8987,7 @@
       <c r="E15">
         <v>19414</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>3</v>
       </c>
       <c r="H15">
@@ -9156,7 +9159,7 @@
         <v>49</v>
       </c>
       <c r="DE15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF15" t="s">
         <v>368</v>
@@ -9462,7 +9465,7 @@
         <v>0</v>
       </c>
       <c r="JG15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ15">
         <v>0</v>
@@ -9471,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="JL15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:290">
@@ -9484,11 +9487,11 @@
       <c r="E16">
         <v>19288</v>
       </c>
-      <c r="F16">
-        <v>3</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="F16" t="s">
         <v>328</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
       </c>
       <c r="H16">
         <v>100</v>
@@ -9644,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="DE16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF16" t="s">
         <v>368</v>
@@ -9836,7 +9839,7 @@
         <v>487</v>
       </c>
       <c r="IN16">
-        <v>57600</v>
+        <v>86400</v>
       </c>
       <c r="IO16">
         <v>1</v>
@@ -9887,7 +9890,7 @@
         <v>0</v>
       </c>
       <c r="JG16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ16">
         <v>0</v>
@@ -9896,7 +9899,7 @@
         <v>0</v>
       </c>
       <c r="JL16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:290">
@@ -9909,7 +9912,7 @@
       <c r="E17">
         <v>19210</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>4</v>
       </c>
       <c r="H17">
@@ -10081,7 +10084,7 @@
         <v>45</v>
       </c>
       <c r="DE17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF17" t="s">
         <v>368</v>
@@ -10336,7 +10339,7 @@
         <v>487</v>
       </c>
       <c r="IN17">
-        <v>43200</v>
+        <v>86400</v>
       </c>
       <c r="IO17">
         <v>1</v>
@@ -10387,7 +10390,7 @@
         <v>0</v>
       </c>
       <c r="JG17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ17">
         <v>0</v>
@@ -10396,7 +10399,7 @@
         <v>0</v>
       </c>
       <c r="JL17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:290">
@@ -10409,11 +10412,11 @@
       <c r="E18">
         <v>19147</v>
       </c>
-      <c r="F18">
-        <v>4</v>
+      <c r="G18">
+        <v>3</v>
       </c>
       <c r="H18">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I18">
         <v>2</v>
@@ -10422,7 +10425,7 @@
         <v>2.6</v>
       </c>
       <c r="K18">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -10581,7 +10584,7 @@
         <v>50</v>
       </c>
       <c r="DE18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF18" t="s">
         <v>368</v>
@@ -10914,7 +10917,7 @@
         <v>0</v>
       </c>
       <c r="JG18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ18">
         <v>0</v>
@@ -10923,7 +10926,7 @@
         <v>0</v>
       </c>
       <c r="JL18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:290">
@@ -10936,11 +10939,11 @@
       <c r="E19">
         <v>19040</v>
       </c>
-      <c r="F19">
-        <v>4</v>
+      <c r="G19">
+        <v>3</v>
       </c>
       <c r="H19">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I19">
         <v>2</v>
@@ -10949,7 +10952,7 @@
         <v>2.6</v>
       </c>
       <c r="K19">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L19">
         <v>1</v>
@@ -11108,7 +11111,7 @@
         <v>50</v>
       </c>
       <c r="DE19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF19" t="s">
         <v>368</v>
@@ -11363,7 +11366,7 @@
         <v>487</v>
       </c>
       <c r="IN19">
-        <v>86400</v>
+        <v>72000</v>
       </c>
       <c r="IO19">
         <v>1</v>
@@ -11414,7 +11417,7 @@
         <v>0</v>
       </c>
       <c r="JG19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ19">
         <v>0</v>
@@ -11423,7 +11426,7 @@
         <v>0</v>
       </c>
       <c r="JL19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:290">
@@ -11436,14 +11439,11 @@
       <c r="E20">
         <v>18552</v>
       </c>
-      <c r="F20">
-        <v>3</v>
-      </c>
-      <c r="G20" t="s">
-        <v>328</v>
+      <c r="G20">
+        <v>4</v>
       </c>
       <c r="H20">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I20">
         <v>2</v>
@@ -11452,7 +11452,7 @@
         <v>2.6</v>
       </c>
       <c r="K20">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L20">
         <v>1</v>
@@ -11596,7 +11596,7 @@
         <v>0</v>
       </c>
       <c r="DE20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF20" t="s">
         <v>368</v>
@@ -11788,7 +11788,7 @@
         <v>487</v>
       </c>
       <c r="IN20">
-        <v>57600</v>
+        <v>86400</v>
       </c>
       <c r="IO20">
         <v>1</v>
@@ -11839,7 +11839,7 @@
         <v>0</v>
       </c>
       <c r="JG20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ20">
         <v>0</v>
@@ -11848,7 +11848,7 @@
         <v>0</v>
       </c>
       <c r="JL20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:290">
@@ -11861,7 +11861,10 @@
       <c r="E21">
         <v>18493</v>
       </c>
-      <c r="F21">
+      <c r="F21" t="s">
+        <v>328</v>
+      </c>
+      <c r="G21">
         <v>4</v>
       </c>
       <c r="H21">
@@ -12018,7 +12021,7 @@
         <v>0</v>
       </c>
       <c r="DE21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF21" t="s">
         <v>368</v>
@@ -12210,7 +12213,7 @@
         <v>487</v>
       </c>
       <c r="IN21">
-        <v>57600</v>
+        <v>86400</v>
       </c>
       <c r="IO21">
         <v>1</v>
@@ -12261,7 +12264,7 @@
         <v>0</v>
       </c>
       <c r="JG21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ21">
         <v>0</v>
@@ -12270,7 +12273,7 @@
         <v>0</v>
       </c>
       <c r="JL21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:290">
@@ -12283,7 +12286,10 @@
       <c r="E22">
         <v>18160</v>
       </c>
-      <c r="F22">
+      <c r="F22" t="s">
+        <v>328</v>
+      </c>
+      <c r="G22">
         <v>4</v>
       </c>
       <c r="H22">
@@ -12440,7 +12446,7 @@
         <v>0</v>
       </c>
       <c r="DE22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF22" t="s">
         <v>368</v>
@@ -12683,7 +12689,7 @@
         <v>0</v>
       </c>
       <c r="JG22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ22">
         <v>0</v>
@@ -12692,7 +12698,7 @@
         <v>0</v>
       </c>
       <c r="JL22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:290">
@@ -12705,7 +12711,7 @@
       <c r="E23">
         <v>17736</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>3</v>
       </c>
       <c r="H23">
@@ -12877,7 +12883,7 @@
         <v>90</v>
       </c>
       <c r="DE23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF23" t="s">
         <v>368</v>
@@ -13159,7 +13165,7 @@
         <v>487</v>
       </c>
       <c r="IN23">
-        <v>57600</v>
+        <v>43200</v>
       </c>
       <c r="IO23">
         <v>1</v>
@@ -13216,7 +13222,7 @@
         <v>43</v>
       </c>
       <c r="JG23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JH23">
         <v>2800</v>
@@ -13231,7 +13237,7 @@
         <v>43</v>
       </c>
       <c r="JL23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM23" t="s">
         <v>506</v>
@@ -13271,11 +13277,11 @@
       <c r="E24">
         <v>17231</v>
       </c>
-      <c r="F24">
-        <v>3</v>
+      <c r="G24">
+        <v>4</v>
       </c>
       <c r="H24">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I24">
         <v>2</v>
@@ -13284,7 +13290,7 @@
         <v>2.6</v>
       </c>
       <c r="K24">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L24">
         <v>1</v>
@@ -13443,7 +13449,7 @@
         <v>41</v>
       </c>
       <c r="DE24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF24" t="s">
         <v>368</v>
@@ -13698,7 +13704,7 @@
         <v>487</v>
       </c>
       <c r="IN24">
-        <v>86400</v>
+        <v>72000</v>
       </c>
       <c r="IO24">
         <v>1</v>
@@ -13749,7 +13755,7 @@
         <v>0</v>
       </c>
       <c r="JG24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ24">
         <v>0</v>
@@ -13758,7 +13764,7 @@
         <v>0</v>
       </c>
       <c r="JL24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:290">
@@ -13771,11 +13777,11 @@
       <c r="E25">
         <v>17130</v>
       </c>
-      <c r="F25">
-        <v>3</v>
+      <c r="G25">
+        <v>4</v>
       </c>
       <c r="H25">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I25">
         <v>2</v>
@@ -13784,7 +13790,7 @@
         <v>2.6</v>
       </c>
       <c r="K25">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L25">
         <v>1</v>
@@ -13943,7 +13949,7 @@
         <v>71</v>
       </c>
       <c r="DE25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF25" t="s">
         <v>368</v>
@@ -14198,7 +14204,7 @@
         <v>487</v>
       </c>
       <c r="IN25">
-        <v>57600</v>
+        <v>86400</v>
       </c>
       <c r="IO25">
         <v>1</v>
@@ -14249,7 +14255,7 @@
         <v>0</v>
       </c>
       <c r="JG25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ25">
         <v>0</v>
@@ -14258,7 +14264,7 @@
         <v>0</v>
       </c>
       <c r="JL25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:290">
@@ -14271,14 +14277,11 @@
       <c r="E26">
         <v>17042</v>
       </c>
-      <c r="F26">
-        <v>4</v>
-      </c>
-      <c r="G26" t="s">
-        <v>328</v>
+      <c r="G26">
+        <v>3</v>
       </c>
       <c r="H26">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I26">
         <v>2</v>
@@ -14287,7 +14290,7 @@
         <v>2.6</v>
       </c>
       <c r="K26">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L26">
         <v>1</v>
@@ -14431,7 +14434,7 @@
         <v>0</v>
       </c>
       <c r="DE26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF26" t="s">
         <v>368</v>
@@ -14623,7 +14626,7 @@
         <v>487</v>
       </c>
       <c r="IN26">
-        <v>43200</v>
+        <v>57600</v>
       </c>
       <c r="IO26">
         <v>1</v>
@@ -14674,7 +14677,7 @@
         <v>0</v>
       </c>
       <c r="JG26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ26">
         <v>0</v>
@@ -14683,7 +14686,7 @@
         <v>0</v>
       </c>
       <c r="JL26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:290">
@@ -14696,11 +14699,11 @@
       <c r="E27">
         <v>16829</v>
       </c>
-      <c r="F27">
-        <v>3</v>
+      <c r="G27">
+        <v>4</v>
       </c>
       <c r="H27">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I27">
         <v>2</v>
@@ -14709,7 +14712,7 @@
         <v>2.6</v>
       </c>
       <c r="K27">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L27">
         <v>1</v>
@@ -14868,7 +14871,7 @@
         <v>52</v>
       </c>
       <c r="DE27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF27" t="s">
         <v>368</v>
@@ -15150,7 +15153,7 @@
         <v>487</v>
       </c>
       <c r="IN27">
-        <v>57600</v>
+        <v>43200</v>
       </c>
       <c r="IO27">
         <v>1</v>
@@ -15201,7 +15204,7 @@
         <v>0</v>
       </c>
       <c r="JG27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ27">
         <v>0</v>
@@ -15210,7 +15213,7 @@
         <v>0</v>
       </c>
       <c r="JL27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:290">
@@ -15223,7 +15226,7 @@
       <c r="E28">
         <v>15953</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>3</v>
       </c>
       <c r="H28">
@@ -15395,7 +15398,7 @@
         <v>55</v>
       </c>
       <c r="DE28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF28" t="s">
         <v>368</v>
@@ -15677,7 +15680,7 @@
         <v>487</v>
       </c>
       <c r="IN28">
-        <v>57600</v>
+        <v>43200</v>
       </c>
       <c r="IO28">
         <v>1</v>
@@ -15734,7 +15737,7 @@
         <v>55</v>
       </c>
       <c r="JG28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ28">
         <v>0</v>
@@ -15743,7 +15746,7 @@
         <v>0</v>
       </c>
       <c r="JL28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:290">
@@ -15756,7 +15759,7 @@
       <c r="E29">
         <v>15873</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>3</v>
       </c>
       <c r="H29">
@@ -15928,7 +15931,7 @@
         <v>90</v>
       </c>
       <c r="DE29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF29" t="s">
         <v>368</v>
@@ -16156,7 +16159,7 @@
         <v>487</v>
       </c>
       <c r="IN29">
-        <v>57600</v>
+        <v>43200</v>
       </c>
       <c r="IO29">
         <v>1</v>
@@ -16213,7 +16216,7 @@
         <v>57</v>
       </c>
       <c r="JG29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ29">
         <v>0</v>
@@ -16222,7 +16225,7 @@
         <v>0</v>
       </c>
       <c r="JL29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:290">
@@ -16235,7 +16238,7 @@
       <c r="E30">
         <v>15855</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>3</v>
       </c>
       <c r="H30">
@@ -16407,7 +16410,7 @@
         <v>41</v>
       </c>
       <c r="DE30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF30" t="s">
         <v>368</v>
@@ -16689,7 +16692,7 @@
         <v>487</v>
       </c>
       <c r="IN30">
-        <v>72000</v>
+        <v>86400</v>
       </c>
       <c r="IO30">
         <v>1</v>
@@ -16740,7 +16743,7 @@
         <v>0</v>
       </c>
       <c r="JG30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ30">
         <v>0</v>
@@ -16749,7 +16752,7 @@
         <v>0</v>
       </c>
       <c r="JL30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM30" t="s">
         <v>507</v>
@@ -16816,7 +16819,7 @@
       <c r="E31">
         <v>15737</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>3</v>
       </c>
       <c r="H31">
@@ -16988,7 +16991,7 @@
         <v>41</v>
       </c>
       <c r="DE31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF31" t="s">
         <v>368</v>
@@ -17270,7 +17273,7 @@
         <v>487</v>
       </c>
       <c r="IN31">
-        <v>86400</v>
+        <v>43200</v>
       </c>
       <c r="IO31">
         <v>1</v>
@@ -17327,7 +17330,7 @@
         <v>41</v>
       </c>
       <c r="JG31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ31">
         <v>0</v>
@@ -17336,7 +17339,7 @@
         <v>0</v>
       </c>
       <c r="JL31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM31" t="s">
         <v>508</v>
@@ -17403,7 +17406,7 @@
       <c r="E32">
         <v>15583</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>4</v>
       </c>
       <c r="H32">
@@ -17575,7 +17578,7 @@
         <v>65</v>
       </c>
       <c r="DE32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF32" t="s">
         <v>368</v>
@@ -17857,7 +17860,7 @@
         <v>487</v>
       </c>
       <c r="IN32">
-        <v>86400</v>
+        <v>72000</v>
       </c>
       <c r="IO32">
         <v>1</v>
@@ -17914,7 +17917,7 @@
         <v>64</v>
       </c>
       <c r="JG32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JH32">
         <v>4000</v>
@@ -17929,7 +17932,7 @@
         <v>65</v>
       </c>
       <c r="JL32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:290">
@@ -17942,7 +17945,7 @@
       <c r="E33">
         <v>14594</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>3</v>
       </c>
       <c r="H33">
@@ -18114,7 +18117,7 @@
         <v>39</v>
       </c>
       <c r="DE33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF33" t="s">
         <v>368</v>
@@ -18396,7 +18399,7 @@
         <v>487</v>
       </c>
       <c r="IN33">
-        <v>57600</v>
+        <v>72000</v>
       </c>
       <c r="IO33">
         <v>1</v>
@@ -18447,7 +18450,7 @@
         <v>0</v>
       </c>
       <c r="JG33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ33">
         <v>0</v>
@@ -18456,7 +18459,7 @@
         <v>0</v>
       </c>
       <c r="JL33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:290">
@@ -18469,11 +18472,11 @@
       <c r="E34">
         <v>14561</v>
       </c>
-      <c r="F34">
-        <v>3</v>
+      <c r="G34">
+        <v>4</v>
       </c>
       <c r="H34">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I34">
         <v>2</v>
@@ -18482,7 +18485,7 @@
         <v>2.6</v>
       </c>
       <c r="K34">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L34">
         <v>1</v>
@@ -18641,7 +18644,7 @@
         <v>52</v>
       </c>
       <c r="DE34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF34" t="s">
         <v>368</v>
@@ -18923,7 +18926,7 @@
         <v>487</v>
       </c>
       <c r="IN34">
-        <v>43200</v>
+        <v>57600</v>
       </c>
       <c r="IO34">
         <v>1</v>
@@ -18974,7 +18977,7 @@
         <v>0</v>
       </c>
       <c r="JG34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ34">
         <v>0</v>
@@ -18983,7 +18986,7 @@
         <v>0</v>
       </c>
       <c r="JL34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM34" t="s">
         <v>509</v>
@@ -19050,14 +19053,14 @@
       <c r="E35">
         <v>14145</v>
       </c>
-      <c r="F35">
-        <v>3</v>
-      </c>
-      <c r="G35" t="s">
+      <c r="F35" t="s">
         <v>328</v>
       </c>
+      <c r="G35">
+        <v>4</v>
+      </c>
       <c r="H35">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I35">
         <v>2</v>
@@ -19066,7 +19069,7 @@
         <v>2.6</v>
       </c>
       <c r="K35">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L35">
         <v>1</v>
@@ -19210,7 +19213,7 @@
         <v>0</v>
       </c>
       <c r="DE35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF35" t="s">
         <v>368</v>
@@ -19402,7 +19405,7 @@
         <v>487</v>
       </c>
       <c r="IN35">
-        <v>43200</v>
+        <v>57600</v>
       </c>
       <c r="IO35">
         <v>1</v>
@@ -19453,7 +19456,7 @@
         <v>0</v>
       </c>
       <c r="JG35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ35">
         <v>0</v>
@@ -19462,7 +19465,7 @@
         <v>0</v>
       </c>
       <c r="JL35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:290">
@@ -19475,11 +19478,8 @@
       <c r="E36">
         <v>14125</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>4</v>
-      </c>
-      <c r="G36" t="s">
-        <v>328</v>
       </c>
       <c r="H36">
         <v>130</v>
@@ -19635,7 +19635,7 @@
         <v>0</v>
       </c>
       <c r="DE36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF36" t="s">
         <v>368</v>
@@ -19827,7 +19827,7 @@
         <v>487</v>
       </c>
       <c r="IN36">
-        <v>57600</v>
+        <v>86400</v>
       </c>
       <c r="IO36">
         <v>1</v>
@@ -19878,7 +19878,7 @@
         <v>0</v>
       </c>
       <c r="JG36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ36">
         <v>0</v>
@@ -19887,7 +19887,7 @@
         <v>0</v>
       </c>
       <c r="JL36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:290">
@@ -19900,11 +19900,11 @@
       <c r="E37">
         <v>14119</v>
       </c>
-      <c r="F37">
-        <v>3</v>
+      <c r="G37">
+        <v>4</v>
       </c>
       <c r="H37">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I37">
         <v>2</v>
@@ -19913,7 +19913,7 @@
         <v>2.6</v>
       </c>
       <c r="K37">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L37">
         <v>1</v>
@@ -20072,7 +20072,7 @@
         <v>90</v>
       </c>
       <c r="DE37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF37" t="s">
         <v>368</v>
@@ -20411,7 +20411,7 @@
         <v>71</v>
       </c>
       <c r="JG37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JH37">
         <v>10600</v>
@@ -20426,7 +20426,7 @@
         <v>71</v>
       </c>
       <c r="JL37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:290">
@@ -20439,11 +20439,11 @@
       <c r="E38">
         <v>13668</v>
       </c>
-      <c r="F38">
-        <v>4</v>
+      <c r="G38">
+        <v>3</v>
       </c>
       <c r="H38">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I38">
         <v>2</v>
@@ -20452,7 +20452,7 @@
         <v>2.6</v>
       </c>
       <c r="K38">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L38">
         <v>1</v>
@@ -20611,7 +20611,7 @@
         <v>60</v>
       </c>
       <c r="DE38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF38" t="s">
         <v>368</v>
@@ -20893,7 +20893,7 @@
         <v>487</v>
       </c>
       <c r="IN38">
-        <v>43200</v>
+        <v>57600</v>
       </c>
       <c r="IO38">
         <v>1</v>
@@ -20944,7 +20944,7 @@
         <v>0</v>
       </c>
       <c r="JG38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ38">
         <v>0</v>
@@ -20953,7 +20953,7 @@
         <v>0</v>
       </c>
       <c r="JL38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:290">
@@ -20966,11 +20966,11 @@
       <c r="E39">
         <v>13273</v>
       </c>
-      <c r="F39">
-        <v>4</v>
+      <c r="G39">
+        <v>3</v>
       </c>
       <c r="H39">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I39">
         <v>2</v>
@@ -20979,7 +20979,7 @@
         <v>2.6</v>
       </c>
       <c r="K39">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L39">
         <v>1</v>
@@ -21138,7 +21138,7 @@
         <v>50</v>
       </c>
       <c r="DE39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF39" t="s">
         <v>368</v>
@@ -21420,7 +21420,7 @@
         <v>487</v>
       </c>
       <c r="IN39">
-        <v>43200</v>
+        <v>57600</v>
       </c>
       <c r="IO39">
         <v>1</v>
@@ -21477,7 +21477,7 @@
         <v>50</v>
       </c>
       <c r="JG39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ39">
         <v>0</v>
@@ -21486,7 +21486,7 @@
         <v>0</v>
       </c>
       <c r="JL39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:290">
@@ -21499,14 +21499,14 @@
       <c r="E40">
         <v>13127</v>
       </c>
-      <c r="F40">
-        <v>3</v>
-      </c>
-      <c r="G40" t="s">
+      <c r="F40" t="s">
         <v>328</v>
       </c>
+      <c r="G40">
+        <v>4</v>
+      </c>
       <c r="H40">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I40">
         <v>2</v>
@@ -21515,7 +21515,7 @@
         <v>2.6</v>
       </c>
       <c r="K40">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L40">
         <v>1</v>
@@ -21659,7 +21659,7 @@
         <v>0</v>
       </c>
       <c r="DE40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF40" t="s">
         <v>368</v>
@@ -21851,7 +21851,7 @@
         <v>487</v>
       </c>
       <c r="IN40">
-        <v>72000</v>
+        <v>86400</v>
       </c>
       <c r="IO40">
         <v>1</v>
@@ -21902,7 +21902,7 @@
         <v>0</v>
       </c>
       <c r="JG40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ40">
         <v>0</v>
@@ -21911,7 +21911,7 @@
         <v>0</v>
       </c>
       <c r="JL40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -21944,7 +21944,7 @@
         <v>514</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>515</v>
@@ -22063,7 +22063,7 @@
         <v>487</v>
       </c>
       <c r="S2">
-        <v>86400</v>
+        <v>57600</v>
       </c>
       <c r="T2">
         <v>1</v>
